--- a/static/download/2022/RP3_ERT_SU_2022_Jan_Dec.xlsx
+++ b/static/download/2022/RP3_ERT_SU_2022_Jan_Dec.xlsx
@@ -563,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="9">
-        <v>44944.0</v>
+        <v>45034.0</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>7</v>
@@ -654,35 +654,35 @@
       </c>
       <c r="B6" s="25">
         <f>sum(B7:B35)</f>
-        <v>66990876.26</v>
+        <v>66892685</v>
       </c>
       <c r="C6" s="25">
         <f t="shared" ref="C6:C35" si="1">B6/C$4</f>
-        <v>183536.6473</v>
+        <v>183267.6301</v>
       </c>
       <c r="D6" s="25">
         <f>sum(D7:D35)</f>
-        <v>108508423</v>
+        <v>108251348</v>
       </c>
       <c r="E6" s="25">
         <f t="shared" ref="E6:E35" si="2">D6/E$4</f>
-        <v>297283.3508</v>
+        <v>296579.0356</v>
       </c>
       <c r="F6" s="26">
         <f t="shared" ref="F6:F35" si="3">E6/C6-1</f>
-        <v>0.6197492718</v>
+        <v>0.6182837929</v>
       </c>
       <c r="G6" s="25">
         <f>sum(G7:G35)</f>
-        <v>104433333.8</v>
+        <v>104404890</v>
       </c>
       <c r="H6" s="25">
         <f t="shared" ref="H6:H35" si="4">G6/H$4</f>
-        <v>286118.7227</v>
+        <v>286040.7945</v>
       </c>
       <c r="I6" s="26">
         <f t="shared" ref="I6:I35" si="5">D6/G6-1</f>
-        <v>0.03902096306</v>
+        <v>0.0368417418</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -690,22 +690,22 @@
         <v>23</v>
       </c>
       <c r="B7" s="27">
-        <v>1799440.46</v>
+        <v>1799440.0</v>
       </c>
       <c r="C7" s="25">
         <f t="shared" si="1"/>
-        <v>4929.973863</v>
+        <v>4929.972603</v>
       </c>
       <c r="D7" s="27">
-        <v>3247861.51</v>
+        <v>3247862.0</v>
       </c>
       <c r="E7" s="25">
         <f t="shared" si="2"/>
-        <v>8898.250712</v>
+        <v>8898.252055</v>
       </c>
       <c r="F7" s="26">
         <f t="shared" si="3"/>
-        <v>0.8049285776</v>
+        <v>0.8049293113</v>
       </c>
       <c r="G7" s="27">
         <v>3003888.0</v>
@@ -716,7 +716,7 @@
       </c>
       <c r="I7" s="26">
         <f t="shared" si="5"/>
-        <v>0.08121924319</v>
+        <v>0.08121940632</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -724,33 +724,33 @@
         <v>24</v>
       </c>
       <c r="B8" s="27">
-        <v>1166898.82</v>
+        <v>1166899.0</v>
       </c>
       <c r="C8" s="25">
         <f t="shared" si="1"/>
-        <v>3196.983068</v>
+        <v>3196.983562</v>
       </c>
       <c r="D8" s="27">
-        <v>2096175.93</v>
+        <v>2096176.0</v>
       </c>
       <c r="E8" s="25">
         <f t="shared" si="2"/>
-        <v>5742.947753</v>
+        <v>5742.947945</v>
       </c>
       <c r="F8" s="26">
         <f t="shared" si="3"/>
-        <v>0.7963647697</v>
+        <v>0.7963645525</v>
       </c>
       <c r="G8" s="27">
-        <v>2066227.0</v>
+        <v>2107529.0</v>
       </c>
       <c r="H8" s="25">
         <f t="shared" si="4"/>
-        <v>5660.89589</v>
+        <v>5774.052055</v>
       </c>
       <c r="I8" s="26">
         <f t="shared" si="5"/>
-        <v>0.01449450133</v>
+        <v>-0.005386877239</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -758,22 +758,22 @@
         <v>25</v>
       </c>
       <c r="B9" s="27">
-        <v>2269764.66</v>
+        <v>2269765.0</v>
       </c>
       <c r="C9" s="25">
         <f t="shared" si="1"/>
-        <v>6218.533315</v>
+        <v>6218.534247</v>
       </c>
       <c r="D9" s="27">
-        <v>3870653.92</v>
+        <v>3870654.0</v>
       </c>
       <c r="E9" s="25">
         <f t="shared" si="2"/>
-        <v>10604.53129</v>
+        <v>10604.53151</v>
       </c>
       <c r="F9" s="26">
         <f t="shared" si="3"/>
-        <v>0.7053106819</v>
+        <v>0.7053104617</v>
       </c>
       <c r="G9" s="27">
         <v>3109171.0</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="I9" s="26">
         <f t="shared" si="5"/>
-        <v>0.2449150979</v>
+        <v>0.2449151237</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -792,33 +792,33 @@
         <v>26</v>
       </c>
       <c r="B10" s="27">
-        <v>1518677.52</v>
+        <v>1518678.0</v>
       </c>
       <c r="C10" s="25">
         <f t="shared" si="1"/>
-        <v>4160.760329</v>
+        <v>4160.761644</v>
       </c>
       <c r="D10" s="27">
-        <v>2228835.27</v>
+        <v>2228835.0</v>
       </c>
       <c r="E10" s="25">
         <f t="shared" si="2"/>
-        <v>6106.398</v>
+        <v>6106.39726</v>
       </c>
       <c r="F10" s="26">
         <f t="shared" si="3"/>
-        <v>0.4676158965</v>
+        <v>0.4676152548</v>
       </c>
       <c r="G10" s="27">
-        <v>1582000.0</v>
+        <v>1581839.0</v>
       </c>
       <c r="H10" s="25">
         <f t="shared" si="4"/>
-        <v>4334.246575</v>
+        <v>4333.805479</v>
       </c>
       <c r="I10" s="26">
         <f t="shared" si="5"/>
-        <v>0.4088718521</v>
+        <v>0.4090150768</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -826,33 +826,33 @@
         <v>27</v>
       </c>
       <c r="B11" s="27">
-        <v>1266299.61</v>
+        <v>1266300.0</v>
       </c>
       <c r="C11" s="25">
         <f t="shared" si="1"/>
-        <v>3469.314</v>
+        <v>3469.315068</v>
       </c>
       <c r="D11" s="27">
-        <v>1788096.68</v>
+        <v>1788097.0</v>
       </c>
       <c r="E11" s="25">
         <f t="shared" si="2"/>
-        <v>4898.895014</v>
+        <v>4898.89589</v>
       </c>
       <c r="F11" s="26">
         <f t="shared" si="3"/>
-        <v>0.412064464</v>
+        <v>0.4120642818</v>
       </c>
       <c r="G11" s="27">
-        <v>1789390.0</v>
+        <v>1837000.0</v>
       </c>
       <c r="H11" s="25">
         <f t="shared" si="4"/>
-        <v>4902.438356</v>
+        <v>5032.876712</v>
       </c>
       <c r="I11" s="26">
         <f t="shared" si="5"/>
-        <v>-0.0007227714473</v>
+        <v>-0.02662112139</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -860,11 +860,11 @@
         <v>28</v>
       </c>
       <c r="B12" s="27">
-        <v>1280174.97</v>
+        <v>1280175.0</v>
       </c>
       <c r="C12" s="25">
         <f t="shared" si="1"/>
-        <v>3507.328685</v>
+        <v>3507.328767</v>
       </c>
       <c r="D12" s="27">
         <v>1814184.0</v>
@@ -875,7 +875,7 @@
       </c>
       <c r="F12" s="26">
         <f t="shared" si="3"/>
-        <v>0.4171375339</v>
+        <v>0.4171375007</v>
       </c>
       <c r="G12" s="27">
         <v>1840802.0</v>
@@ -894,22 +894,22 @@
         <v>29</v>
       </c>
       <c r="B13" s="27">
-        <v>784993.24</v>
+        <v>784993.0</v>
       </c>
       <c r="C13" s="25">
         <f t="shared" si="1"/>
-        <v>2150.666411</v>
+        <v>2150.665753</v>
       </c>
       <c r="D13" s="27">
-        <v>1282409.65</v>
+        <v>1282410.0</v>
       </c>
       <c r="E13" s="25">
         <f t="shared" si="2"/>
-        <v>3513.451096</v>
+        <v>3513.452055</v>
       </c>
       <c r="F13" s="26">
         <f t="shared" si="3"/>
-        <v>0.6336569344</v>
+        <v>0.6336578798</v>
       </c>
       <c r="G13" s="27">
         <v>1455159.0</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="I13" s="26">
         <f t="shared" si="5"/>
-        <v>-0.1187151026</v>
+        <v>-0.1187148621</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -928,22 +928,22 @@
         <v>30</v>
       </c>
       <c r="B14" s="27">
-        <v>466941.88</v>
+        <v>466942.0</v>
       </c>
       <c r="C14" s="25">
         <f t="shared" si="1"/>
-        <v>1279.292822</v>
+        <v>1279.293151</v>
       </c>
       <c r="D14" s="27">
-        <v>428510.54</v>
+        <v>428511.0</v>
       </c>
       <c r="E14" s="25">
         <f t="shared" si="2"/>
-        <v>1174.001479</v>
+        <v>1174.00274</v>
       </c>
       <c r="F14" s="26">
         <f t="shared" si="3"/>
-        <v>-0.08230433304</v>
+        <v>-0.08230358374</v>
       </c>
       <c r="G14" s="27">
         <v>726854.0</v>
@@ -954,7 +954,7 @@
       </c>
       <c r="I14" s="26">
         <f t="shared" si="5"/>
-        <v>-0.410458579</v>
+        <v>-0.4104579462</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -962,33 +962,33 @@
         <v>31</v>
       </c>
       <c r="B15" s="27">
-        <v>494854.39</v>
+        <v>494854.0</v>
       </c>
       <c r="C15" s="25">
         <f t="shared" si="1"/>
-        <v>1355.765452</v>
+        <v>1355.764384</v>
       </c>
       <c r="D15" s="27">
-        <v>597862.02</v>
+        <v>597862.0</v>
       </c>
       <c r="E15" s="25">
         <f t="shared" si="2"/>
-        <v>1637.978137</v>
+        <v>1637.978082</v>
       </c>
       <c r="F15" s="26">
         <f t="shared" si="3"/>
-        <v>0.2081574542</v>
+        <v>0.2081583659</v>
       </c>
       <c r="G15" s="27">
-        <v>894000.0</v>
+        <v>894387.0</v>
       </c>
       <c r="H15" s="25">
         <f t="shared" si="4"/>
-        <v>2449.315068</v>
+        <v>2450.375342</v>
       </c>
       <c r="I15" s="26">
         <f t="shared" si="5"/>
-        <v>-0.3312505369</v>
+        <v>-0.3315399262</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -996,22 +996,22 @@
         <v>32</v>
       </c>
       <c r="B16" s="27">
-        <v>1.118052042E7</v>
+        <v>1.118052E7</v>
       </c>
       <c r="C16" s="25">
         <f t="shared" si="1"/>
-        <v>30631.56279</v>
+        <v>30631.56164</v>
       </c>
       <c r="D16" s="27">
-        <v>1.889798508E7</v>
+        <v>1.8897985E7</v>
       </c>
       <c r="E16" s="25">
         <f t="shared" si="2"/>
-        <v>51775.30159</v>
+        <v>51775.30137</v>
       </c>
       <c r="F16" s="26">
         <f t="shared" si="3"/>
-        <v>0.6902598779</v>
+        <v>0.6902599342</v>
       </c>
       <c r="G16" s="27">
         <v>1.698996E7</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="I16" s="26">
         <f t="shared" si="5"/>
-        <v>0.1123030943</v>
+        <v>0.1123030896</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -1030,22 +1030,22 @@
         <v>33</v>
       </c>
       <c r="B17" s="27">
-        <v>7776983.3</v>
+        <v>7678785.0</v>
       </c>
       <c r="C17" s="25">
         <f t="shared" si="1"/>
-        <v>21306.80356</v>
+        <v>21037.76712</v>
       </c>
       <c r="D17" s="27">
-        <v>1.264728363E7</v>
+        <v>1.2390208E7</v>
       </c>
       <c r="E17" s="25">
         <f t="shared" si="2"/>
-        <v>34650.09214</v>
+        <v>33945.77534</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" si="3"/>
-        <v>0.6262454402</v>
+        <v>0.6135636041</v>
       </c>
       <c r="G17" s="27">
         <v>1.36435E7</v>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="I17" s="26">
         <f t="shared" si="5"/>
-        <v>-0.07301765456</v>
+        <v>-0.0918600066</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -1064,33 +1064,33 @@
         <v>34</v>
       </c>
       <c r="B18" s="27">
-        <v>4048216.66</v>
+        <v>4048217.0</v>
       </c>
       <c r="C18" s="25">
         <f t="shared" si="1"/>
-        <v>11091.00455</v>
+        <v>11091.00548</v>
       </c>
       <c r="D18" s="27">
-        <v>6416384.21</v>
+        <v>6416384.0</v>
       </c>
       <c r="E18" s="25">
         <f t="shared" si="2"/>
-        <v>17579.13482</v>
+        <v>17579.13425</v>
       </c>
       <c r="F18" s="26">
         <f t="shared" si="3"/>
-        <v>0.5849903177</v>
+        <v>0.5849901327</v>
       </c>
       <c r="G18" s="27">
-        <v>5445138.0</v>
+        <v>5861000.0</v>
       </c>
       <c r="H18" s="25">
         <f t="shared" si="4"/>
-        <v>14918.1863</v>
+        <v>16057.53425</v>
       </c>
       <c r="I18" s="26">
         <f t="shared" si="5"/>
-        <v>0.1783694389</v>
+        <v>0.0947592561</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -1098,22 +1098,22 @@
         <v>35</v>
       </c>
       <c r="B19" s="27">
-        <v>1726638.13</v>
+        <v>1726646.0</v>
       </c>
       <c r="C19" s="25">
         <f t="shared" si="1"/>
-        <v>4730.515425</v>
+        <v>4730.536986</v>
       </c>
       <c r="D19" s="27">
-        <v>3184085.02</v>
+        <v>3184085.0</v>
       </c>
       <c r="E19" s="25">
         <f t="shared" si="2"/>
-        <v>8723.520603</v>
+        <v>8723.520548</v>
       </c>
       <c r="F19" s="26">
         <f t="shared" si="3"/>
-        <v>0.8440951608</v>
+        <v>0.8440867439</v>
       </c>
       <c r="G19" s="27">
         <v>2419349.0</v>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="I19" s="26">
         <f t="shared" si="5"/>
-        <v>0.3160916511</v>
+        <v>0.3160916428</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -1132,33 +1132,33 @@
         <v>36</v>
       </c>
       <c r="B20" s="27">
-        <v>2419194.06</v>
+        <v>2419194.0</v>
       </c>
       <c r="C20" s="25">
         <f t="shared" si="1"/>
-        <v>6627.928932</v>
+        <v>6627.928767</v>
       </c>
       <c r="D20" s="27">
-        <v>4233451.96</v>
+        <v>4233452.0</v>
       </c>
       <c r="E20" s="25">
         <f t="shared" si="2"/>
-        <v>11598.49852</v>
+        <v>11598.49863</v>
       </c>
       <c r="F20" s="26">
         <f t="shared" si="3"/>
-        <v>0.749943103</v>
+        <v>0.7499431629</v>
       </c>
       <c r="G20" s="27">
-        <v>3990958.0</v>
+        <v>3991000.0</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="4"/>
-        <v>10934.13151</v>
+        <v>10934.24658</v>
       </c>
       <c r="I20" s="26">
         <f t="shared" si="5"/>
-        <v>0.06076083988</v>
+        <v>0.0607496868</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -1166,22 +1166,22 @@
         <v>37</v>
       </c>
       <c r="B21" s="27">
-        <v>5782897.41</v>
+        <v>5782897.0</v>
       </c>
       <c r="C21" s="25">
         <f t="shared" si="1"/>
-        <v>15843.55455</v>
+        <v>15843.55342</v>
       </c>
       <c r="D21" s="27">
-        <v>9561777.77</v>
+        <v>9561778.0</v>
       </c>
       <c r="E21" s="25">
         <f t="shared" si="2"/>
-        <v>26196.65142</v>
+        <v>26196.65205</v>
       </c>
       <c r="F21" s="26">
         <f t="shared" si="3"/>
-        <v>0.6534579627</v>
+        <v>0.6534581197</v>
       </c>
       <c r="G21" s="27">
         <v>8507000.0</v>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="I21" s="26">
         <f t="shared" si="5"/>
-        <v>0.1239893934</v>
+        <v>0.1239894205</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1200,33 +1200,33 @@
         <v>38</v>
       </c>
       <c r="B22" s="27">
-        <v>541943.53</v>
+        <v>541944.0</v>
       </c>
       <c r="C22" s="25">
         <f t="shared" si="1"/>
-        <v>1484.776795</v>
+        <v>1484.778082</v>
       </c>
       <c r="D22" s="27">
-        <v>465601.41</v>
+        <v>465601.0</v>
       </c>
       <c r="E22" s="25">
         <f t="shared" si="2"/>
-        <v>1275.620301</v>
+        <v>1275.619178</v>
       </c>
       <c r="F22" s="26">
         <f t="shared" si="3"/>
-        <v>-0.1408672966</v>
+        <v>-0.1408687983</v>
       </c>
       <c r="G22" s="27">
-        <v>736060.65</v>
+        <v>466000.0</v>
       </c>
       <c r="H22" s="25">
         <f t="shared" si="4"/>
-        <v>2016.604521</v>
+        <v>1276.712329</v>
       </c>
       <c r="I22" s="26">
         <f t="shared" si="5"/>
-        <v>-0.3674415145</v>
+        <v>-0.000856223176</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -1234,33 +1234,33 @@
         <v>39</v>
       </c>
       <c r="B23" s="27">
-        <v>443151.34</v>
+        <v>443151.0</v>
       </c>
       <c r="C23" s="25">
         <f t="shared" si="1"/>
-        <v>1214.11326</v>
+        <v>1214.112329</v>
       </c>
       <c r="D23" s="27">
-        <v>375999.07</v>
+        <v>375999.0</v>
       </c>
       <c r="E23" s="25">
         <f t="shared" si="2"/>
-        <v>1030.134438</v>
+        <v>1030.134247</v>
       </c>
       <c r="F23" s="26">
         <f t="shared" si="3"/>
-        <v>-0.1515334919</v>
+        <v>-0.1515329989</v>
       </c>
       <c r="G23" s="27">
-        <v>506000.0</v>
+        <v>372000.0</v>
       </c>
       <c r="H23" s="25">
         <f t="shared" si="4"/>
-        <v>1386.30137</v>
+        <v>1019.178082</v>
       </c>
       <c r="I23" s="26">
         <f t="shared" si="5"/>
-        <v>-0.256918834</v>
+        <v>0.01075</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -1268,33 +1268,33 @@
         <v>40</v>
       </c>
       <c r="B24" s="27">
-        <v>503699.45</v>
+        <v>503699.0</v>
       </c>
       <c r="C24" s="25">
         <f t="shared" si="1"/>
-        <v>1379.998493</v>
+        <v>1379.99726</v>
       </c>
       <c r="D24" s="27">
-        <v>666811.86</v>
+        <v>666812.0</v>
       </c>
       <c r="E24" s="25">
         <f t="shared" si="2"/>
-        <v>1826.881808</v>
+        <v>1826.882192</v>
       </c>
       <c r="F24" s="26">
         <f t="shared" si="3"/>
-        <v>0.3238288428</v>
+        <v>0.3238303034</v>
       </c>
       <c r="G24" s="27">
-        <v>714000.0</v>
+        <v>811000.0</v>
       </c>
       <c r="H24" s="25">
         <f t="shared" si="4"/>
-        <v>1956.164384</v>
+        <v>2221.917808</v>
       </c>
       <c r="I24" s="26">
         <f t="shared" si="5"/>
-        <v>-0.06608983193</v>
+        <v>-0.1777903822</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -1302,22 +1302,22 @@
         <v>41</v>
       </c>
       <c r="B25" s="27">
-        <v>1565320.41</v>
+        <v>1565320.0</v>
       </c>
       <c r="C25" s="25">
         <f t="shared" si="1"/>
-        <v>4288.549068</v>
+        <v>4288.547945</v>
       </c>
       <c r="D25" s="27">
-        <v>2585834.59</v>
+        <v>2585835.0</v>
       </c>
       <c r="E25" s="25">
         <f t="shared" si="2"/>
-        <v>7084.478329</v>
+        <v>7084.479452</v>
       </c>
       <c r="F25" s="26">
         <f t="shared" si="3"/>
-        <v>0.6519522607</v>
+        <v>0.6519529553</v>
       </c>
       <c r="G25" s="27">
         <v>2593000.0</v>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I25" s="26">
         <f t="shared" si="5"/>
-        <v>-0.002763366757</v>
+        <v>-0.002763208639</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -1336,33 +1336,33 @@
         <v>42</v>
       </c>
       <c r="B26" s="27">
-        <v>1445482.8</v>
+        <v>1445483.0</v>
       </c>
       <c r="C26" s="25">
         <f t="shared" si="1"/>
-        <v>3960.226849</v>
+        <v>3960.227397</v>
       </c>
       <c r="D26" s="27">
-        <v>2071286.72</v>
+        <v>2071287.0</v>
       </c>
       <c r="E26" s="25">
         <f t="shared" si="2"/>
-        <v>5674.758137</v>
+        <v>5674.758904</v>
       </c>
       <c r="F26" s="26">
         <f t="shared" si="3"/>
-        <v>0.4329376455</v>
+        <v>0.4329376409</v>
       </c>
       <c r="G26" s="27">
-        <v>2048217.63</v>
+        <v>2048218.0</v>
       </c>
       <c r="H26" s="25">
         <f t="shared" si="4"/>
-        <v>5611.555151</v>
+        <v>5611.556164</v>
       </c>
       <c r="I26" s="26">
         <f t="shared" si="5"/>
-        <v>0.01126300724</v>
+        <v>0.01126296127</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -1370,22 +1370,22 @@
         <v>43</v>
       </c>
       <c r="B27" s="27">
-        <v>2585928.14</v>
+        <v>2585928.0</v>
       </c>
       <c r="C27" s="25">
         <f t="shared" si="1"/>
-        <v>7084.73463</v>
+        <v>7084.734247</v>
       </c>
       <c r="D27" s="27">
-        <v>3128964.46</v>
+        <v>3128964.0</v>
       </c>
       <c r="E27" s="25">
         <f t="shared" si="2"/>
-        <v>8572.50537</v>
+        <v>8572.50411</v>
       </c>
       <c r="F27" s="26">
         <f t="shared" si="3"/>
-        <v>0.2099966784</v>
+        <v>0.209996566</v>
       </c>
       <c r="G27" s="27">
         <v>3990970.0</v>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="I27" s="26">
         <f t="shared" si="5"/>
-        <v>-0.2159889801</v>
+        <v>-0.2159890954</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -1404,22 +1404,22 @@
         <v>44</v>
       </c>
       <c r="B28" s="27">
-        <v>1988333.31</v>
+        <v>1988333.0</v>
       </c>
       <c r="C28" s="25">
         <f t="shared" si="1"/>
-        <v>5447.488521</v>
+        <v>5447.487671</v>
       </c>
       <c r="D28" s="27">
-        <v>3695099.17</v>
+        <v>3695099.0</v>
       </c>
       <c r="E28" s="25">
         <f t="shared" si="2"/>
-        <v>10123.55937</v>
+        <v>10123.5589</v>
       </c>
       <c r="F28" s="26">
         <f t="shared" si="3"/>
-        <v>0.8583902163</v>
+        <v>0.8583904205</v>
       </c>
       <c r="G28" s="27">
         <v>3315551.0</v>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I28" s="26">
         <f t="shared" si="5"/>
-        <v>0.1144751415</v>
+        <v>0.1144750903</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -1438,33 +1438,33 @@
         <v>45</v>
       </c>
       <c r="B29" s="27">
-        <v>2869906.71</v>
+        <v>2869907.0</v>
       </c>
       <c r="C29" s="25">
         <f t="shared" si="1"/>
-        <v>7862.75811</v>
+        <v>7862.758904</v>
       </c>
       <c r="D29" s="27">
-        <v>4770303.57</v>
+        <v>4770304.0</v>
       </c>
       <c r="E29" s="25">
         <f t="shared" si="2"/>
-        <v>13069.32485</v>
+        <v>13069.32603</v>
       </c>
       <c r="F29" s="26">
         <f t="shared" si="3"/>
-        <v>0.662180709</v>
+        <v>0.6621806909</v>
       </c>
       <c r="G29" s="27">
-        <v>4360417.0</v>
+        <v>4583000.0</v>
       </c>
       <c r="H29" s="25">
         <f t="shared" si="4"/>
-        <v>11946.34795</v>
+        <v>12556.16438</v>
       </c>
       <c r="I29" s="26">
         <f t="shared" si="5"/>
-        <v>0.09400169066</v>
+        <v>0.04086929959</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -1472,33 +1472,33 @@
         <v>46</v>
       </c>
       <c r="B30" s="27">
-        <v>611990.88</v>
+        <v>611991.0</v>
       </c>
       <c r="C30" s="25">
         <f t="shared" si="1"/>
-        <v>1676.687342</v>
+        <v>1676.687671</v>
       </c>
       <c r="D30" s="27">
-        <v>972528.11</v>
+        <v>972528.0</v>
       </c>
       <c r="E30" s="25">
         <f t="shared" si="2"/>
-        <v>2664.460575</v>
+        <v>2664.460274</v>
       </c>
       <c r="F30" s="26">
         <f t="shared" si="3"/>
-        <v>0.5891219</v>
+        <v>0.5891214086</v>
       </c>
       <c r="G30" s="27">
-        <v>798052.0</v>
+        <v>798000.0</v>
       </c>
       <c r="H30" s="25">
         <f t="shared" si="4"/>
-        <v>2186.443836</v>
+        <v>2186.30137</v>
       </c>
       <c r="I30" s="26">
         <f t="shared" si="5"/>
-        <v>0.2186274955</v>
+        <v>0.2187067669</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -1506,33 +1506,33 @@
         <v>47</v>
       </c>
       <c r="B31" s="27">
-        <v>369971.01</v>
+        <v>369971.0</v>
       </c>
       <c r="C31" s="25">
         <f t="shared" si="1"/>
-        <v>1013.619205</v>
+        <v>1013.619178</v>
       </c>
       <c r="D31" s="27">
-        <v>595455.76</v>
+        <v>595456.0</v>
       </c>
       <c r="E31" s="25">
         <f t="shared" si="2"/>
-        <v>1631.385644</v>
+        <v>1631.386301</v>
       </c>
       <c r="F31" s="26">
         <f t="shared" si="3"/>
-        <v>0.6094659957</v>
+        <v>0.6094666879</v>
       </c>
       <c r="G31" s="27">
-        <v>535977.52</v>
+        <v>535978.0</v>
       </c>
       <c r="H31" s="25">
         <f t="shared" si="4"/>
-        <v>1468.431562</v>
+        <v>1468.432877</v>
       </c>
       <c r="I31" s="26">
         <f t="shared" si="5"/>
-        <v>0.1109715199</v>
+        <v>0.1109709727</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -1540,22 +1540,22 @@
         <v>48</v>
       </c>
       <c r="B32" s="27">
-        <v>1007563.14</v>
+        <v>1007563.0</v>
       </c>
       <c r="C32" s="25">
         <f t="shared" si="1"/>
-        <v>2760.446959</v>
+        <v>2760.446575</v>
       </c>
       <c r="D32" s="27">
-        <v>1789655.33</v>
+        <v>1789655.0</v>
       </c>
       <c r="E32" s="25">
         <f t="shared" si="2"/>
-        <v>4903.165288</v>
+        <v>4903.164384</v>
       </c>
       <c r="F32" s="26">
         <f t="shared" si="3"/>
-        <v>0.776221518</v>
+        <v>0.7762214373</v>
       </c>
       <c r="G32" s="27">
         <v>1414576.0</v>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="I32" s="26">
         <f t="shared" si="5"/>
-        <v>0.2651531837</v>
+        <v>0.2651529504</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
@@ -1574,22 +1574,22 @@
         <v>49</v>
       </c>
       <c r="B33" s="27">
-        <v>6382912.53</v>
+        <v>6382913.0</v>
       </c>
       <c r="C33" s="25">
         <f t="shared" si="1"/>
-        <v>17487.43159</v>
+        <v>17487.43288</v>
       </c>
       <c r="D33" s="27">
-        <v>1.107870948E7</v>
+        <v>1.1078709E7</v>
       </c>
       <c r="E33" s="25">
         <f t="shared" si="2"/>
-        <v>30352.62871</v>
+        <v>30352.6274</v>
       </c>
       <c r="F33" s="26">
         <f t="shared" si="3"/>
-        <v>0.7356824847</v>
+        <v>0.7356822817</v>
       </c>
       <c r="G33" s="27">
         <v>1.1190159E7</v>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I33" s="26">
         <f t="shared" si="5"/>
-        <v>-0.00995960111</v>
+        <v>-0.009959644005</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -1608,33 +1608,33 @@
         <v>50</v>
       </c>
       <c r="B34" s="27">
-        <v>1794889.29</v>
+        <v>1794889.0</v>
       </c>
       <c r="C34" s="25">
         <f t="shared" si="1"/>
-        <v>4917.504904</v>
+        <v>4917.50411</v>
       </c>
       <c r="D34" s="27">
-        <v>2471898.49</v>
+        <v>2471898.0</v>
       </c>
       <c r="E34" s="25">
         <f t="shared" si="2"/>
-        <v>6772.32463</v>
+        <v>6772.323288</v>
       </c>
       <c r="F34" s="26">
         <f t="shared" si="3"/>
-        <v>0.3771871634</v>
+        <v>0.377187113</v>
       </c>
       <c r="G34" s="27">
-        <v>3173000.0</v>
+        <v>2724000.0</v>
       </c>
       <c r="H34" s="25">
         <f t="shared" si="4"/>
-        <v>8693.150685</v>
+        <v>7463.013699</v>
       </c>
       <c r="I34" s="26">
         <f t="shared" si="5"/>
-        <v>-0.2209585597</v>
+        <v>-0.09254845815</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -1642,33 +1642,33 @@
         <v>51</v>
       </c>
       <c r="B35" s="27">
-        <v>897288.19</v>
+        <v>897288.0</v>
       </c>
       <c r="C35" s="25">
         <f t="shared" si="1"/>
-        <v>2458.323808</v>
+        <v>2458.323288</v>
       </c>
       <c r="D35" s="27">
-        <v>1544717.83</v>
+        <v>1544718.0</v>
       </c>
       <c r="E35" s="25">
         <f t="shared" si="2"/>
-        <v>4232.103644</v>
+        <v>4232.10411</v>
       </c>
       <c r="F35" s="26">
         <f t="shared" si="3"/>
-        <v>0.7215403559</v>
+        <v>0.7215409099</v>
       </c>
       <c r="G35" s="27">
-        <v>1593956.98</v>
+        <v>1594000.0</v>
       </c>
       <c r="H35" s="25">
         <f t="shared" si="4"/>
-        <v>4367.005425</v>
+        <v>4367.123288</v>
       </c>
       <c r="I35" s="26">
         <f t="shared" si="5"/>
-        <v>-0.03089114111</v>
+        <v>-0.03091718946</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
